--- a/biology/Médecine/Syndrome_de_Susac/Syndrome_de_Susac.xlsx
+++ b/biology/Médecine/Syndrome_de_Susac/Syndrome_de_Susac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Susac est une microangiopathie associant une atteinte des vaisseaux de la rétine, de la cochlée et du cerveau.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été décrit par John O. Susac en 1979[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été décrit par John O. Susac en 1979.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une maladie auto-immune[2], avec présence d'anticorps anti-cellules endothéliales[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une maladie auto-immune, avec présence d'anticorps anti-cellules endothéliales.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il associe une occlusion d'une branche de l'artère centrale de la rétine, des troubles de l'audition et des signes neurologiques variés[2].
-L'IRM cérébrale montre des anomalies de la substance blanche ainsi qu'au niveau du corps calleux[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il associe une occlusion d'une branche de l'artère centrale de la rétine, des troubles de l'audition et des signes neurologiques variés.
+L'IRM cérébrale montre des anomalies de la substance blanche ainsi qu'au niveau du corps calleux.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les formes atypiques de la maladie peuvent le faire confondre avec une sclérose en plaques[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les formes atypiques de la maladie peuvent le faire confondre avec une sclérose en plaques.
 </t>
         </is>
       </c>
@@ -636,9 +656,11 @@
           <t>traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il repose sur les corticoïdes et l'injection d'immunoglobulines. Dans les formes sévère, un traitement par immunosuppresseurs peut être proposé[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il repose sur les corticoïdes et l'injection d'immunoglobulines. Dans les formes sévère, un traitement par immunosuppresseurs peut être proposé.
 </t>
         </is>
       </c>
